--- a/resource_api/raporlar/dosyalar/Yukleme-Yil.xlsx
+++ b/resource_api/raporlar/dosyalar/Yukleme-Yil.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Sayfa1'!$C$1:$D$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sayfa1'!$C$1:$D$89</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -18,8 +18,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="[$$-409]#,##0.000000" numFmtId="164"/>
-    <numFmt formatCode="[$$-409]#,##0.00" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.000000"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -74,35 +74,36 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors/>
 </styleSheet>
 </file>
 
@@ -413,15 +414,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="19" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="19" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="2" width="19"/>
-    <col customWidth="1" max="3" min="3" style="5" width="19"/>
-    <col customWidth="1" max="4" min="4" style="6" width="19"/>
-    <col customWidth="1" max="16384" min="5" style="3" width="19"/>
+    <col width="19" customWidth="1" style="2" min="1" max="2"/>
+    <col width="19" customWidth="1" style="5" min="3" max="3"/>
+    <col width="19" customWidth="1" style="6" min="4" max="4"/>
+    <col width="19" customWidth="1" style="3" min="5" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18" r="1">
+    <row r="1" ht="18" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Müşteri Adı</t>
@@ -443,828 +444,1934 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Imperial Homes</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>352726.19</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>424266.19</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>VEIK - UAE</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>46692.25</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>53792.25</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Imperial Homes</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="C3" s="7" t="n">
-        <v>41441.13</v>
+        <v>226876.31</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>51041.13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
+        <v>250487.31</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Atlanta - Stone Mountain</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>163980.85</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>237730.85</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cem Peker</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>185472.15</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>185472.15</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Henry - Ghana</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>147170.42</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>169880.42</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bennis - Morocco</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>107066.39</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>124591.39</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Kirill - Russia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>115004.45</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>119598.57</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Prim Rose - Ghana</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>88272.09</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>117497.09</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bernard Osei - Ghana</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>70117.57000000001</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>93617.57000000001</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Radu &amp; Eugen - USA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>68309.83</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>75398.69</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Hamad - Oman</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>57262.4</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>64462.4</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Bigeni - Malta</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>23438.9</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>24498.9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>59322.49</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>62745.99</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ata Sab. - Kuwait</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>57202.09</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>61102.09</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Bruce - USA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>45627.85</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>59927.85</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Richard - Ghana</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>44055.36</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>52005.36</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Branislav Mikulovsky - Slovakia</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>50692.48</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>50162.48</v>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30602.14</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>50052.14</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>48810.17</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>48810.17</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>David, PDG - Australia</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>41832.27</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>47182.27</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Tracy - AU</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>38281.03</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>46661.03</v>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Roland - AU</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>28377.12</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>46377.12</v>
+      </c>
+    </row>
+    <row r="23" ht="18" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Wood - Russia</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>43005</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>43005</v>
+      </c>
+    </row>
+    <row r="24" ht="18" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ben Persell Thompson - UK</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>40460</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>41588</v>
+      </c>
+    </row>
+    <row r="25" ht="18" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sheila Darkwa - Ghana</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>32686.68</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>39686.68</v>
+      </c>
+    </row>
+    <row r="26" ht="18" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Rakeen - Qatar</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>34675.2</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>38525.2</v>
+      </c>
+    </row>
+    <row r="27" ht="18" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Kirill Nizovskiy - Dubai</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>36002.88</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>36002.88</v>
+      </c>
+    </row>
+    <row r="28" ht="18" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Atu - Ghana</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>31982.5</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>34883</v>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BKF - USA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>35825.93</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>34825.93</v>
+      </c>
+    </row>
+    <row r="30" ht="18" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Villo Home - USA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>24882.82</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>32382.82</v>
+      </c>
+    </row>
+    <row r="31" ht="18" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Porcemar - Venezuela</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>23057.4</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>30707.4</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="1">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Cosmin Tache - Romania</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>27589.23</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>28442.19</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="1">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Emily - Singapore</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>24361.16</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>27311.16</v>
+      </c>
+    </row>
+    <row r="34" ht="18" customHeight="1">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Maya</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>24014.51</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>24014.51</v>
+      </c>
+    </row>
+    <row r="35" ht="18" customHeight="1">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>23528.51</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>23528.51</v>
+      </c>
+    </row>
+    <row r="36" ht="18" customHeight="1">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Esi Okyere - Ghana</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>17153.8</v>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>21853.8</v>
+      </c>
+    </row>
+    <row r="37" ht="18" customHeight="1">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>JFB - Nevis</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>12002.52</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>20502.52</v>
+      </c>
+    </row>
+    <row r="38" ht="18" customHeight="1">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Fevzi - Turkey</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>19618.88</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>19618.88</v>
+      </c>
+    </row>
+    <row r="39" ht="18" customHeight="1">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Appia Marmi - Italy</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>18967.83</v>
+      </c>
+      <c r="D39" s="7" t="n">
+        <v>18967.83</v>
+      </c>
+    </row>
+    <row r="40" ht="18" customHeight="1">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kusgölü </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>18887.64</v>
+      </c>
+      <c r="D40" s="7" t="n">
+        <v>18887.64</v>
+      </c>
+    </row>
+    <row r="41" ht="18" customHeight="1">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Cem Mermer (Cemalettin)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>18368.36</v>
+      </c>
+      <c r="D41" s="7" t="n">
+        <v>18368.36</v>
+      </c>
+    </row>
+    <row r="42" ht="18" customHeight="1">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Sean - MALTA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C42" s="7" t="n">
+        <v>16003.05</v>
+      </c>
+      <c r="D42" s="7" t="n">
+        <v>18193.05</v>
+      </c>
+    </row>
+    <row r="43" ht="18" customHeight="1">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sherzod Tairov - Kazakhstan</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C43" s="7" t="n">
+        <v>16866</v>
+      </c>
+      <c r="D43" s="7" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="44" ht="18" customHeight="1">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Angelo - Saint Martin</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C44" s="7" t="n">
+        <v>11481.48</v>
+      </c>
+      <c r="D44" s="7" t="n">
+        <v>17781.48</v>
+      </c>
+    </row>
+    <row r="45" ht="18" customHeight="1">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sanya Dogaltas - Turkey</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>17614.53</v>
+      </c>
+      <c r="D45" s="7" t="n">
+        <v>17614.53</v>
+      </c>
+    </row>
+    <row r="46" ht="18" customHeight="1">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Zulfia - Russia</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C46" s="7" t="n">
+        <v>17298.96</v>
+      </c>
+      <c r="D46" s="7" t="n">
+        <v>17298.96</v>
+      </c>
+    </row>
+    <row r="47" ht="18" customHeight="1">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Denmar</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C47" s="7" t="n">
+        <v>17163.84</v>
+      </c>
+      <c r="D47" s="7" t="n">
+        <v>17163.84</v>
+      </c>
+    </row>
+    <row r="48" ht="18" customHeight="1">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Allen, VK - Oman</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C48" s="7" t="n">
+        <v>15067.03</v>
+      </c>
+      <c r="D48" s="7" t="n">
+        <v>16467.03</v>
+      </c>
+    </row>
+    <row r="49" ht="18" customHeight="1">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>John Kwame Boateng - Ghana</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C49" s="7" t="n">
+        <v>12360</v>
+      </c>
+      <c r="D49" s="7" t="n">
+        <v>16030</v>
+      </c>
+    </row>
+    <row r="50" ht="18" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>Nova - Elaine</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="n">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C50" s="7" t="n">
         <v>14110.9</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D50" s="7" t="n">
         <v>15910.9</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Cem-Mer (PEKER)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>12896.84</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>12896.84</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="7">
-      <c r="A7" t="inlineStr">
+    <row r="51" ht="18" customHeight="1">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Brett, UHA - USA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C51" s="7" t="n">
+        <v>6659.1</v>
+      </c>
+      <c r="D51" s="7" t="n">
+        <v>14759.1</v>
+      </c>
+    </row>
+    <row r="52" ht="18" customHeight="1">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ian G. Randolph - Ghana</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C52" s="7" t="n">
+        <v>14735.46</v>
+      </c>
+      <c r="D52" s="7" t="n">
+        <v>14735.46</v>
+      </c>
+    </row>
+    <row r="53" ht="18" customHeight="1">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Veysi &amp; Assham - Libya</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C53" s="7" t="n">
+        <v>14511.2</v>
+      </c>
+      <c r="D53" s="7" t="n">
+        <v>14511.2</v>
+      </c>
+    </row>
+    <row r="54" ht="18" customHeight="1">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Marteen Rubino - USA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C54" s="7" t="n">
+        <v>6292.7</v>
+      </c>
+      <c r="D54" s="7" t="n">
+        <v>14227.11</v>
+      </c>
+    </row>
+    <row r="55" ht="18" customHeight="1">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ilka - italy</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C55" s="7" t="n">
+        <v>9003.120000000001</v>
+      </c>
+      <c r="D55" s="7" t="n">
+        <v>13173.12</v>
+      </c>
+    </row>
+    <row r="56" ht="18" customHeight="1">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ahmed Alghunaim - Kuwait</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C56" s="7" t="n">
+        <v>10204.03</v>
+      </c>
+      <c r="D56" s="7" t="n">
+        <v>12804.03</v>
+      </c>
+    </row>
+    <row r="57" ht="18" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>Stolp Agni - Poland</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="n">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C57" s="7" t="n">
         <v>10162.79</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D57" s="7" t="n">
         <v>10162.79</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sean - MALTA</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>6167.19</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>8257.190000000001</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="9">
-      <c r="A9" t="inlineStr">
+    <row r="58" ht="18" customHeight="1">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Reşat Bey, Nela Mad. - Turkey</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C58" s="7" t="n">
+        <v>9948.389999999999</v>
+      </c>
+      <c r="D58" s="7" t="n">
+        <v>9948.389999999999</v>
+      </c>
+    </row>
+    <row r="59" ht="18" customHeight="1">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Yer Ev Dekor</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C59" s="7" t="n">
+        <v>9331.290000000001</v>
+      </c>
+      <c r="D59" s="7" t="n">
+        <v>9331.290000000001</v>
+      </c>
+    </row>
+    <row r="60" ht="18" customHeight="1">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hamza Boumaza - Algeria</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C60" s="7" t="n">
+        <v>6675.84</v>
+      </c>
+      <c r="D60" s="7" t="n">
+        <v>8175.84</v>
+      </c>
+    </row>
+    <row r="61" ht="18" customHeight="1">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Tayyar Yüzgeç - Turkey</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C61" s="7" t="n">
+        <v>5775.16</v>
+      </c>
+      <c r="D61" s="7" t="n">
+        <v>6053.42</v>
+      </c>
+    </row>
+    <row r="62" ht="18" customHeight="1">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Cavit - Turkey</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C62" s="7" t="n">
+        <v>5208.76</v>
+      </c>
+      <c r="D62" s="7" t="n">
+        <v>5208.76</v>
+      </c>
+    </row>
+    <row r="63" ht="18" customHeight="1">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Kent Mermer</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C63" s="7" t="n">
+        <v>5137.52</v>
+      </c>
+      <c r="D63" s="7" t="n">
+        <v>5137.52</v>
+      </c>
+    </row>
+    <row r="64" ht="18" customHeight="1">
+      <c r="A64" t="inlineStr">
         <is>
           <t>Tamer ($)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>4475.43</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>4475.43</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Denmar</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C64" s="7" t="n">
+        <v>5097.51</v>
+      </c>
+      <c r="D64" s="7" t="n">
+        <v>5097.51</v>
+      </c>
+    </row>
+    <row r="65" ht="18" customHeight="1">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Dilamar Mermer</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>İç Piyasa</t>
         </is>
       </c>
-      <c r="C10" s="7" t="n">
-        <v>3862.8</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>3862.8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Cem Mermer (Cemalettin)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="C65" s="7" t="n">
+        <v>4709.25</v>
+      </c>
+      <c r="D65" s="7" t="n">
+        <v>4709.25</v>
+      </c>
+    </row>
+    <row r="66" ht="18" customHeight="1">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Gregory Dean - Guyana</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C66" s="7" t="n">
+        <v>334.08</v>
+      </c>
+      <c r="D66" s="7" t="n">
+        <v>4634.08</v>
+      </c>
+    </row>
+    <row r="67" ht="18" customHeight="1">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Amparo - Spain</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C67" s="7" t="n">
+        <v>4394</v>
+      </c>
+      <c r="D67" s="7" t="n">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="68" ht="18" customHeight="1">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Brent Losey - USA</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C68" s="7" t="n">
+        <v>3092.8</v>
+      </c>
+      <c r="D68" s="7" t="n">
+        <v>4367.81</v>
+      </c>
+    </row>
+    <row r="69" ht="18" customHeight="1">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Keith Tabor - USA</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C69" s="7" t="n">
+        <v>3256.83</v>
+      </c>
+      <c r="D69" s="7" t="n">
+        <v>4280.28</v>
+      </c>
+    </row>
+    <row r="70" ht="18" customHeight="1">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Lissa - Greece</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C70" s="7" t="n">
+        <v>2915</v>
+      </c>
+      <c r="D70" s="7" t="n">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="71" ht="18" customHeight="1">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Mahmoud - USA</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C71" s="7" t="n">
+        <v>1625.75</v>
+      </c>
+      <c r="D71" s="7" t="n">
+        <v>4096.35</v>
+      </c>
+    </row>
+    <row r="72" ht="18" customHeight="1">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Salih - Turkey</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>İç Piyasa</t>
         </is>
       </c>
-      <c r="C11" s="7" t="n">
-        <v>683.76</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>683.76</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="12">
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="13">
-      <c r="C13" s="8" t="n">
-        <v>163931.99</v>
-      </c>
-      <c r="D13" s="8" t="n">
-        <v>185581.99</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="14">
-      <c r="C14" s="7" t="n"/>
-      <c r="D14" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="15">
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="16">
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="17">
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="18">
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="19">
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="20">
-      <c r="C20" s="7" t="n"/>
-      <c r="D20" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="21">
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="22">
-      <c r="C22" s="7" t="n"/>
-      <c r="D22" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="23">
-      <c r="C23" s="7" t="n"/>
-      <c r="D23" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="24">
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="25">
-      <c r="C25" s="7" t="n"/>
-      <c r="D25" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="26">
-      <c r="C26" s="7" t="n"/>
-      <c r="D26" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="27">
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="28">
-      <c r="C28" s="7" t="n"/>
-      <c r="D28" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="29">
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="30">
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="31">
-      <c r="C31" s="7" t="n"/>
-      <c r="D31" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="32">
-      <c r="C32" s="7" t="n"/>
-      <c r="D32" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="33">
-      <c r="C33" s="7" t="n"/>
-      <c r="D33" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="34">
-      <c r="C34" s="7" t="n"/>
-      <c r="D34" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="35">
-      <c r="C35" s="7" t="n"/>
-      <c r="D35" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="36">
-      <c r="C36" s="7" t="n"/>
-      <c r="D36" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="37">
-      <c r="C37" s="7" t="n"/>
-      <c r="D37" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="38">
-      <c r="C38" s="7" t="n"/>
-      <c r="D38" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="39">
-      <c r="C39" s="7" t="n"/>
-      <c r="D39" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="40">
-      <c r="C40" s="7" t="n"/>
-      <c r="D40" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="41">
-      <c r="C41" s="7" t="n"/>
-      <c r="D41" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="42">
-      <c r="C42" s="7" t="n"/>
-      <c r="D42" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="43">
-      <c r="C43" s="7" t="n"/>
-      <c r="D43" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="44">
-      <c r="C44" s="7" t="n"/>
-      <c r="D44" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="45">
-      <c r="C45" s="7" t="n"/>
-      <c r="D45" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="46">
-      <c r="C46" s="7" t="n"/>
-      <c r="D46" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="47">
-      <c r="C47" s="7" t="n"/>
-      <c r="D47" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="48">
-      <c r="C48" s="7" t="n"/>
-      <c r="D48" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="49">
-      <c r="C49" s="7" t="n"/>
-      <c r="D49" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="50">
-      <c r="C50" s="7" t="n"/>
-      <c r="D50" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="51">
-      <c r="C51" s="7" t="n"/>
-      <c r="D51" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="52">
-      <c r="C52" s="7" t="n"/>
-      <c r="D52" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="53">
-      <c r="C53" s="7" t="n"/>
-      <c r="D53" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="54">
-      <c r="C54" s="7" t="n"/>
-      <c r="D54" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="55">
-      <c r="C55" s="7" t="n"/>
-      <c r="D55" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="56">
-      <c r="C56" s="7" t="n"/>
-      <c r="D56" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="57">
-      <c r="C57" s="7" t="n"/>
-      <c r="D57" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="58">
-      <c r="C58" s="7" t="n"/>
-      <c r="D58" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="59">
-      <c r="C59" s="7" t="n"/>
-      <c r="D59" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="60">
-      <c r="C60" s="7" t="n"/>
-      <c r="D60" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="61">
-      <c r="C61" s="7" t="n"/>
-      <c r="D61" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="62">
-      <c r="C62" s="7" t="n"/>
-      <c r="D62" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="63">
-      <c r="C63" s="7" t="n"/>
-      <c r="D63" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="64">
-      <c r="C64" s="7" t="n"/>
-      <c r="D64" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="65">
-      <c r="C65" s="7" t="n"/>
-      <c r="D65" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="66">
-      <c r="C66" s="7" t="n"/>
-      <c r="D66" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="67">
-      <c r="C67" s="7" t="n"/>
-      <c r="D67" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="68">
-      <c r="C68" s="7" t="n"/>
-      <c r="D68" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="69">
-      <c r="C69" s="7" t="n"/>
-      <c r="D69" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="70">
-      <c r="C70" s="7" t="n"/>
-      <c r="D70" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="71">
-      <c r="C71" s="7" t="n"/>
-      <c r="D71" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="72">
-      <c r="C72" s="7" t="n"/>
-      <c r="D72" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="73">
-      <c r="C73" s="7" t="n"/>
-      <c r="D73" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="74">
-      <c r="C74" s="7" t="n"/>
-      <c r="D74" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="75">
-      <c r="C75" s="7" t="n"/>
-      <c r="D75" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="76">
-      <c r="C76" s="7" t="n"/>
-      <c r="D76" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="77">
-      <c r="C77" s="7" t="n"/>
-      <c r="D77" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="78">
-      <c r="C78" s="7" t="n"/>
-      <c r="D78" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="79">
-      <c r="C79" s="7" t="n"/>
-      <c r="D79" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="80">
-      <c r="C80" s="7" t="n"/>
-      <c r="D80" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="81">
-      <c r="C81" s="7" t="n"/>
-      <c r="D81" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="82">
-      <c r="C82" s="7" t="n"/>
-      <c r="D82" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="83">
-      <c r="C83" s="7" t="n"/>
-      <c r="D83" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="84">
-      <c r="C84" s="7" t="n"/>
-      <c r="D84" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="85">
-      <c r="C85" s="7" t="n"/>
-      <c r="D85" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="86">
-      <c r="C86" s="7" t="n"/>
-      <c r="D86" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="87">
-      <c r="C87" s="7" t="n"/>
-      <c r="D87" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="88">
-      <c r="C88" s="7" t="n"/>
-      <c r="D88" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="89">
-      <c r="C89" s="7" t="n"/>
-      <c r="D89" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="90">
-      <c r="C90" s="7" t="n"/>
-      <c r="D90" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="91">
+      <c r="C72" s="7" t="n">
+        <v>3423.98</v>
+      </c>
+      <c r="D72" s="7" t="n">
+        <v>3423.98</v>
+      </c>
+    </row>
+    <row r="73" ht="18" customHeight="1">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Senyo Hosi - Ghana</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C73" s="7" t="n">
+        <v>3157.5</v>
+      </c>
+      <c r="D73" s="7" t="n">
+        <v>3157.5</v>
+      </c>
+    </row>
+    <row r="74" ht="18" customHeight="1">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Bens Stone</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C74" s="7" t="n">
+        <v>2867.1</v>
+      </c>
+      <c r="D74" s="7" t="n">
+        <v>2867.1</v>
+      </c>
+    </row>
+    <row r="75" ht="18" customHeight="1">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Shane - USA</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C75" s="7" t="n">
+        <v>1820</v>
+      </c>
+      <c r="D75" s="7" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="76" ht="18" customHeight="1">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Jacob Tyroller- USA</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C76" s="7" t="n">
+        <v>2372.46</v>
+      </c>
+      <c r="D76" s="7" t="n">
+        <v>2558.99</v>
+      </c>
+    </row>
+    <row r="77" ht="18" customHeight="1">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Gökçe - Turkey</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C77" s="7" t="n">
+        <v>1864.1</v>
+      </c>
+      <c r="D77" s="7" t="n">
+        <v>2217.04</v>
+      </c>
+    </row>
+    <row r="78" ht="18" customHeight="1">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Amulya - USA</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C78" s="7" t="n">
+        <v>962.9</v>
+      </c>
+      <c r="D78" s="7" t="n">
+        <v>2162.9</v>
+      </c>
+    </row>
+    <row r="79" ht="18" customHeight="1">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Valerie Alaimo - USA</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C79" s="7" t="n">
+        <v>1355.7</v>
+      </c>
+      <c r="D79" s="7" t="n">
+        <v>1975.29</v>
+      </c>
+    </row>
+    <row r="80" ht="18" customHeight="1">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Ömer Çerkeş</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C80" s="7" t="n">
+        <v>1506.41</v>
+      </c>
+      <c r="D80" s="7" t="n">
+        <v>1506.41</v>
+      </c>
+    </row>
+    <row r="81" ht="18" customHeight="1">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Daniela, OLI - Austria</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C81" s="7" t="n">
+        <v>1270.1</v>
+      </c>
+      <c r="D81" s="7" t="n">
+        <v>1270.1</v>
+      </c>
+    </row>
+    <row r="82" ht="18" customHeight="1">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Bethany Bristow - USA</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C82" s="7" t="n">
+        <v>650</v>
+      </c>
+      <c r="D82" s="7" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="83" ht="18" customHeight="1">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Beyzanur Mermer</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C83" s="7" t="n">
+        <v>1138.5</v>
+      </c>
+      <c r="D83" s="7" t="n">
+        <v>1138.5</v>
+      </c>
+    </row>
+    <row r="84" ht="18" customHeight="1">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Hantaş Mermer</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C84" s="7" t="n">
+        <v>952.6799999999999</v>
+      </c>
+      <c r="D84" s="7" t="n">
+        <v>952.6799999999999</v>
+      </c>
+    </row>
+    <row r="85" ht="18" customHeight="1">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Tarik Zubi - Israel</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C85" s="7" t="n">
+        <v>400</v>
+      </c>
+      <c r="D85" s="7" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="86" ht="18" customHeight="1">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Courtney Adams - USA</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C86" s="7" t="n">
+        <v>400</v>
+      </c>
+      <c r="D86" s="7" t="n">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="87" ht="18" customHeight="1">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Thuy Bui - USA</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C87" s="7" t="n">
+        <v>360</v>
+      </c>
+      <c r="D87" s="7" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="88" ht="18" customHeight="1">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Rakmer - Turkey</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C88" s="7" t="n">
+        <v>734.54</v>
+      </c>
+      <c r="D88" s="7" t="n">
+        <v>734.54</v>
+      </c>
+    </row>
+    <row r="89" ht="18" customHeight="1">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Darius Kazenas - Lithuania</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="C89" s="7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D89" s="7" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" ht="18" customHeight="1">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Yazit, Bekisoglu</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="C90" s="7" t="n">
+        <v>160.2</v>
+      </c>
+      <c r="D90" s="7" t="n">
+        <v>160.2</v>
+      </c>
+    </row>
+    <row r="91" ht="18" customHeight="1">
       <c r="C91" s="7" t="n"/>
       <c r="D91" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="92">
-      <c r="C92" s="7" t="n"/>
-      <c r="D92" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="93">
+    <row r="92" ht="18" customHeight="1">
+      <c r="C92" s="8" t="n">
+        <v>2836805.04</v>
+      </c>
+      <c r="D92" s="8" t="n">
+        <v>3300316.769999999</v>
+      </c>
+    </row>
+    <row r="93" ht="18" customHeight="1">
       <c r="C93" s="7" t="n"/>
       <c r="D93" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="94">
+    <row r="94" ht="18" customHeight="1">
       <c r="C94" s="7" t="n"/>
       <c r="D94" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="95">
+    <row r="95" ht="18" customHeight="1">
       <c r="C95" s="7" t="n"/>
       <c r="D95" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="96">
+    <row r="96" ht="18" customHeight="1">
       <c r="C96" s="7" t="n"/>
       <c r="D96" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="97">
+    <row r="97" ht="18" customHeight="1">
       <c r="C97" s="7" t="n"/>
       <c r="D97" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="98">
+    <row r="98" ht="18" customHeight="1">
       <c r="C98" s="7" t="n"/>
       <c r="D98" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="99">
+    <row r="99" ht="18" customHeight="1">
       <c r="C99" s="7" t="n"/>
       <c r="D99" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="100">
+    <row r="100" ht="18" customHeight="1">
       <c r="C100" s="7" t="n"/>
       <c r="D100" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="101">
+    <row r="101" ht="18" customHeight="1">
       <c r="C101" s="7" t="n"/>
       <c r="D101" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="102">
+    <row r="102" ht="18" customHeight="1">
       <c r="C102" s="7" t="n"/>
       <c r="D102" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="103">
+    <row r="103" ht="18" customHeight="1">
       <c r="C103" s="7" t="n"/>
       <c r="D103" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="104">
+    <row r="104" ht="18" customHeight="1">
       <c r="C104" s="7" t="n"/>
       <c r="D104" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="105">
+    <row r="105" ht="18" customHeight="1">
       <c r="C105" s="7" t="n"/>
       <c r="D105" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="106">
+    <row r="106" ht="18" customHeight="1">
       <c r="C106" s="7" t="n"/>
       <c r="D106" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="107">
+    <row r="107" ht="18" customHeight="1">
       <c r="C107" s="7" t="n"/>
       <c r="D107" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="108">
+    <row r="108" ht="18" customHeight="1">
       <c r="C108" s="7" t="n"/>
       <c r="D108" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="109">
+    <row r="109" ht="18" customHeight="1">
       <c r="C109" s="7" t="n"/>
       <c r="D109" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="110">
+    <row r="110" ht="18" customHeight="1">
       <c r="C110" s="7" t="n"/>
       <c r="D110" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="111">
+    <row r="111" ht="18" customHeight="1">
       <c r="C111" s="7" t="n"/>
       <c r="D111" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="112">
+    <row r="112" ht="18" customHeight="1">
       <c r="C112" s="7" t="n"/>
       <c r="D112" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="113">
+    <row r="113" ht="18" customHeight="1">
       <c r="C113" s="7" t="n"/>
       <c r="D113" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="114">
+    <row r="114" ht="18" customHeight="1">
       <c r="C114" s="7" t="n"/>
       <c r="D114" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="115">
+    <row r="115" ht="18" customHeight="1">
       <c r="C115" s="7" t="n"/>
       <c r="D115" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="116">
+    <row r="116" ht="18" customHeight="1">
       <c r="C116" s="7" t="n"/>
       <c r="D116" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="117">
+    <row r="117" ht="18" customHeight="1">
       <c r="C117" s="7" t="n"/>
       <c r="D117" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="118">
+    <row r="118" ht="18" customHeight="1">
       <c r="C118" s="7" t="n"/>
       <c r="D118" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="119">
+    <row r="119" ht="18" customHeight="1">
       <c r="C119" s="7" t="n"/>
       <c r="D119" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="120">
+    <row r="120" ht="18" customHeight="1">
       <c r="C120" s="7" t="n"/>
       <c r="D120" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="121">
+    <row r="121" ht="18" customHeight="1">
       <c r="C121" s="7" t="n"/>
       <c r="D121" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="122">
+    <row r="122" ht="18" customHeight="1">
       <c r="C122" s="7" t="n"/>
       <c r="D122" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="123">
+    <row r="123" ht="18" customHeight="1">
       <c r="C123" s="7" t="n"/>
       <c r="D123" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="124">
+    <row r="124" ht="18" customHeight="1">
       <c r="C124" s="7" t="n"/>
       <c r="D124" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="125">
+    <row r="125" ht="18" customHeight="1">
       <c r="C125" s="7" t="n"/>
       <c r="D125" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="126">
+    <row r="126" ht="18" customHeight="1">
       <c r="C126" s="7" t="n"/>
       <c r="D126" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="127">
+    <row r="127" ht="18" customHeight="1">
       <c r="C127" s="7" t="n"/>
       <c r="D127" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="128">
+    <row r="128" ht="18" customHeight="1">
       <c r="C128" s="7" t="n"/>
       <c r="D128" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="129">
+    <row r="129" ht="18" customHeight="1">
       <c r="C129" s="7" t="n"/>
       <c r="D129" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="130">
+    <row r="130" ht="18" customHeight="1">
       <c r="C130" s="7" t="n"/>
       <c r="D130" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="131">
+    <row r="131" ht="18" customHeight="1">
       <c r="C131" s="7" t="n"/>
       <c r="D131" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="132">
+    <row r="132" ht="18" customHeight="1">
       <c r="C132" s="7" t="n"/>
       <c r="D132" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="133">
+    <row r="133" ht="18" customHeight="1">
       <c r="C133" s="7" t="n"/>
       <c r="D133" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="134">
+    <row r="134" ht="18" customHeight="1">
       <c r="C134" s="7" t="n"/>
       <c r="D134" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="135">
+    <row r="135" ht="18" customHeight="1">
       <c r="C135" s="7" t="n"/>
       <c r="D135" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="136">
+    <row r="136" ht="18" customHeight="1">
       <c r="C136" s="7" t="n"/>
       <c r="D136" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="137">
+    <row r="137" ht="18" customHeight="1">
       <c r="C137" s="7" t="n"/>
       <c r="D137" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="138">
+    <row r="138" ht="18" customHeight="1">
       <c r="C138" s="7" t="n"/>
       <c r="D138" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="139">
+    <row r="139" ht="18" customHeight="1">
       <c r="C139" s="7" t="n"/>
       <c r="D139" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="140">
+    <row r="140" ht="18" customHeight="1">
       <c r="C140" s="7" t="n"/>
       <c r="D140" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="141">
+    <row r="141" ht="18" customHeight="1">
       <c r="C141" s="7" t="n"/>
       <c r="D141" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="142">
+    <row r="142" ht="18" customHeight="1">
       <c r="C142" s="7" t="n"/>
       <c r="D142" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="143">
+    <row r="143" ht="18" customHeight="1">
       <c r="C143" s="7" t="n"/>
       <c r="D143" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="144">
+    <row r="144" ht="18" customHeight="1">
       <c r="C144" s="7" t="n"/>
       <c r="D144" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="145">
+    <row r="145" ht="18" customHeight="1">
       <c r="C145" s="7" t="n"/>
       <c r="D145" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="146">
+    <row r="146" ht="18" customHeight="1">
       <c r="C146" s="7" t="n"/>
       <c r="D146" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="147">
+    <row r="147" ht="18" customHeight="1">
       <c r="C147" s="7" t="n"/>
       <c r="D147" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="148">
+    <row r="148" ht="18" customHeight="1">
       <c r="C148" s="7" t="n"/>
       <c r="D148" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="149">
+    <row r="149" ht="18" customHeight="1">
       <c r="C149" s="7" t="n"/>
       <c r="D149" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="150">
+    <row r="150" ht="18" customHeight="1">
       <c r="C150" s="7" t="n"/>
       <c r="D150" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="151">
+    <row r="151" ht="18" customHeight="1">
       <c r="C151" s="7" t="n"/>
       <c r="D151" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="152">
+    <row r="152" ht="18" customHeight="1">
       <c r="C152" s="7" t="n"/>
       <c r="D152" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="153">
+    <row r="153" ht="18" customHeight="1">
       <c r="C153" s="7" t="n"/>
       <c r="D153" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="154">
+    <row r="154" ht="18" customHeight="1">
       <c r="C154" s="7" t="n"/>
       <c r="D154" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="155">
+    <row r="155" ht="18" customHeight="1">
       <c r="C155" s="7" t="n"/>
       <c r="D155" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="156">
+    <row r="156" ht="18" customHeight="1">
       <c r="C156" s="7" t="n"/>
       <c r="D156" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="157">
+    <row r="157" ht="18" customHeight="1">
       <c r="C157" s="7" t="n"/>
       <c r="D157" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="158">
+    <row r="158" ht="18" customHeight="1">
       <c r="C158" s="7" t="n"/>
       <c r="D158" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="159">
+    <row r="159" ht="18" customHeight="1">
       <c r="C159" s="7" t="n"/>
       <c r="D159" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="160">
+    <row r="160" ht="18" customHeight="1">
       <c r="C160" s="7" t="n"/>
       <c r="D160" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="161">
+    <row r="161" ht="18" customHeight="1">
       <c r="C161" s="7" t="n"/>
       <c r="D161" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="162">
+    <row r="162" ht="18" customHeight="1">
       <c r="C162" s="7" t="n"/>
       <c r="D162" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="163">
+    <row r="163" ht="18" customHeight="1">
       <c r="C163" s="7" t="n"/>
       <c r="D163" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="164">
+    <row r="164" ht="18" customHeight="1">
       <c r="C164" s="7" t="n"/>
       <c r="D164" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="165">
+    <row r="165" ht="18" customHeight="1">
       <c r="C165" s="7" t="n"/>
       <c r="D165" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="166">
+    <row r="166" ht="18" customHeight="1">
       <c r="C166" s="7" t="n"/>
       <c r="D166" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="167">
+    <row r="167" ht="18" customHeight="1">
       <c r="C167" s="7" t="n"/>
       <c r="D167" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="168">
+    <row r="168" ht="18" customHeight="1">
       <c r="C168" s="7" t="n"/>
       <c r="D168" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="169">
+    <row r="169" ht="18" customHeight="1">
       <c r="C169" s="7" t="n"/>
       <c r="D169" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="170">
+    <row r="170" ht="18" customHeight="1">
       <c r="C170" s="7" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:D89"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>